--- a/testwithjava.xlsx
+++ b/testwithjava.xlsx
@@ -20,13 +20,13 @@
     <t>User ID :</t>
   </si>
   <si>
-    <t>mngr128515</t>
+    <t>mngr129901</t>
   </si>
   <si>
     <t>Password :</t>
   </si>
   <si>
-    <t>yhymamE</t>
+    <t>azYmUmY</t>
   </si>
   <si>
     <t>This access is valid only for 20 days.</t>
